--- a/KM_Macro_Input.xlsx
+++ b/KM_Macro_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\SUBMISSION_FILES\KM_MOOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFC35B-1BC5-42FF-9DFB-1695B6B91252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C29E43-EDC2-4717-A53A-8955A75F6C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KM_Macro_Input" sheetId="1" r:id="rId1"/>
@@ -208,13 +208,13 @@
     <t>Exaggeration line style - Ex style Graphs 3,4</t>
   </si>
   <si>
-    <t>Percentage plot 1</t>
+    <t>DATA</t>
   </si>
   <si>
-    <t>Percentage plot 2</t>
+    <t>Stack plot 1</t>
   </si>
   <si>
-    <t>DATA</t>
+    <t>Stack plot 2</t>
   </si>
 </sst>
 </file>
@@ -1072,43 +1072,43 @@
   <dimension ref="A1:AA126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -4177,9 +4177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -4260,9 +4260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -4343,9 +4343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -4426,9 +4426,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -4509,9 +4509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -4592,9 +4592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -4675,9 +4675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -4758,9 +4758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
@@ -4841,9 +4841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1">
         <v>6</v>
@@ -4924,9 +4924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
         <v>7</v>
@@ -5007,9 +5007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1">
         <v>8</v>
@@ -5090,9 +5090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1">
         <v>9</v>
@@ -5173,9 +5173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
@@ -5256,9 +5256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1">
         <v>11</v>
@@ -5339,9 +5339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
         <v>12</v>
@@ -5422,9 +5422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1">
         <v>13</v>
@@ -5505,9 +5505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1">
         <v>14</v>
@@ -5588,9 +5588,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>15</v>
@@ -5671,9 +5671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1">
         <v>16</v>
@@ -5754,9 +5754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1">
         <v>17</v>
@@ -5837,9 +5837,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
         <v>18</v>
@@ -5920,9 +5920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
         <v>19</v>
@@ -6003,9 +6003,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1">
         <v>20</v>
@@ -6086,9 +6086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
         <v>21</v>
@@ -6169,9 +6169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>22</v>
@@ -6252,9 +6252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>23</v>
@@ -6335,9 +6335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>24</v>
@@ -6418,9 +6418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>25</v>
@@ -6501,9 +6501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
         <v>26</v>
@@ -6584,9 +6584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1">
         <v>27</v>
@@ -6667,9 +6667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1">
         <v>28</v>
@@ -6750,9 +6750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1">
         <v>29</v>
@@ -6833,9 +6833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
         <v>30</v>
@@ -6916,9 +6916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1">
         <v>31</v>
@@ -6999,9 +6999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1">
         <v>32</v>
@@ -7082,9 +7082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1">
         <v>33</v>
@@ -7165,9 +7165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74" s="1">
         <v>34</v>
@@ -7248,9 +7248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1">
         <v>35</v>
@@ -7331,9 +7331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B76" s="1">
         <v>36</v>
@@ -7414,9 +7414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1">
         <v>37</v>
@@ -7497,9 +7497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1">
         <v>38</v>
@@ -7580,9 +7580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B79" s="1">
         <v>39</v>
@@ -7663,9 +7663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B80" s="1">
         <v>40</v>
@@ -7746,9 +7746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1">
         <v>41</v>
@@ -7829,9 +7829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B82" s="1">
         <v>42</v>
@@ -7912,9 +7912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B83" s="1">
         <v>43</v>
@@ -7995,9 +7995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B84" s="1">
         <v>44</v>
@@ -8078,9 +8078,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B85" s="1">
         <v>45</v>
@@ -8161,9 +8161,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B86" s="1">
         <v>46</v>
@@ -8244,9 +8244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B87" s="1">
         <v>47</v>
@@ -8327,9 +8327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1">
         <v>48</v>
@@ -8410,9 +8410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1">
         <v>49</v>
@@ -8493,9 +8493,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1">
         <v>52</v>
@@ -8576,9 +8576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1">
         <v>54</v>
@@ -8659,9 +8659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1">
         <v>58</v>
@@ -8742,9 +8742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B93" s="1">
         <v>62</v>
@@ -8825,9 +8825,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B94" s="1">
         <v>65</v>
@@ -8908,9 +8908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1">
         <v>66</v>
@@ -8991,9 +8991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1">
         <v>70</v>
@@ -9074,9 +9074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1">
         <v>74</v>
@@ -9157,9 +9157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1">
         <v>78</v>
@@ -9240,9 +9240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1">
         <v>82</v>
@@ -9323,9 +9323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1">
         <v>86</v>
@@ -9406,9 +9406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1">
         <v>90</v>
@@ -9489,9 +9489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B102" s="1">
         <v>94</v>
@@ -9572,9 +9572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1">
         <v>98</v>
@@ -9655,9 +9655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1">
         <v>102</v>
@@ -9738,9 +9738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105" s="1">
         <v>106</v>
@@ -9821,9 +9821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B106" s="1">
         <v>110</v>
@@ -9904,9 +9904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1">
         <v>114</v>
@@ -9987,9 +9987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B108" s="1">
         <v>118</v>
@@ -10070,9 +10070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B109" s="1">
         <v>122</v>
@@ -10153,9 +10153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1">
         <v>126</v>
@@ -10236,9 +10236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B111" s="1">
         <v>130</v>
@@ -10319,9 +10319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B112" s="1">
         <v>134</v>
@@ -10402,9 +10402,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B113" s="1">
         <v>138</v>
@@ -10485,9 +10485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B114" s="1">
         <v>142</v>
@@ -10568,9 +10568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B115" s="1">
         <v>146</v>
@@ -10651,9 +10651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B116" s="1">
         <v>150</v>
@@ -10734,9 +10734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B117" s="1">
         <v>154</v>
@@ -10817,9 +10817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B118" s="1">
         <v>158</v>
@@ -10900,9 +10900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B119" s="1">
         <v>162</v>
@@ -10983,9 +10983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B120" s="1">
         <v>165</v>
@@ -11066,9 +11066,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B121" s="1">
         <v>169</v>
@@ -11149,9 +11149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1">
         <v>173</v>
@@ -11232,9 +11232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B123" s="1">
         <v>177</v>
@@ -11315,9 +11315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B124" s="1">
         <v>181</v>
@@ -11398,9 +11398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B125" s="1">
         <v>185</v>
@@ -11481,9 +11481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B126" s="1">
         <v>189</v>
